--- a/final data.xlsx
+++ b/final data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004z4ut\Desktop\intent recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D37536-D931-46DA-B35B-3366E8048514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC28E42-D2F5-4998-B5CC-FE099D120DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:B315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
